--- a/datamodel/datamodel_v12.xlsx
+++ b/datamodel/datamodel_v12.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\nhi\git\nhi\datamodel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2B2D37-AC44-4813-8EFD-DD6FC1EF6C59}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="16608" windowHeight="2652" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Handleiding" sheetId="45" r:id="rId1"/>
@@ -1157,9 +1163,6 @@
     <t>hoogteBinnenOnderkantBov</t>
   </si>
   <si>
-    <t>vormKoker</t>
-  </si>
-  <si>
     <t>Keuzelijst: 1= duiker, 2= hevel, 3= sifon</t>
   </si>
   <si>
@@ -1263,12 +1266,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>vormKokerCode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1958,6 +1964,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1979,7 +1988,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2017,7 +2032,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2055,7 +2076,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2093,7 +2120,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28"/>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2131,7 +2164,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2169,7 +2208,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 30"/>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2207,7 +2252,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 32"/>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2245,7 +2296,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2288,7 +2345,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2331,7 +2394,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2400,7 +2469,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2433,9 +2502,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2468,6 +2554,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2643,7 +2746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2692,7 +2795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet9">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -2897,7 +3000,7 @@
     </row>
     <row r="10" spans="2:8" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="65" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C10" s="65" t="s">
         <v>44</v>
@@ -2945,7 +3048,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E12" s="44" t="s">
         <v>288</v>
@@ -2999,7 +3102,7 @@
         <v>259</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="2:8" s="43" customFormat="1" x14ac:dyDescent="0.3">
@@ -3093,14 +3196,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten"/>
+    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet10">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -3382,15 +3485,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten"/>
-    <hyperlink ref="B15" location="DwarsProfiel!A1" display="DwarsProfiel"/>
+    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="B15" location="DwarsProfiel!A1" display="DwarsProfiel" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet11">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -3470,7 +3573,7 @@
         <v>45</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E4" s="65" t="s">
         <v>288</v>
@@ -3584,16 +3687,16 @@
         <v>150</v>
       </c>
       <c r="E9" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="H9" s="66" t="s">
         <v>326</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="66" t="s">
-        <v>259</v>
-      </c>
-      <c r="H9" s="66" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="10" spans="2:8" s="43" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3679,7 +3782,7 @@
         <v>259</v>
       </c>
       <c r="H13" s="76" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="2:8" s="43" customFormat="1" x14ac:dyDescent="0.3">
@@ -3702,7 +3805,7 @@
         <v>259</v>
       </c>
       <c r="H14" s="76" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="2:8" s="43" customFormat="1" x14ac:dyDescent="0.3">
@@ -3788,7 +3891,7 @@
         <v>259</v>
       </c>
       <c r="H18" s="70" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
@@ -3813,17 +3916,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten"/>
-    <hyperlink ref="B21" location="Afsluitmiddel!A1" display="Afsluitmiddel"/>
-    <hyperlink ref="B22" location="Pomp!A1" display="Pomp"/>
-    <hyperlink ref="B23" location="Meetlocatie!A1" display="Meetlocatie"/>
+    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="B21" location="Afsluitmiddel!A1" display="Afsluitmiddel" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
+    <hyperlink ref="B22" location="Pomp!A1" display="Pomp" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
+    <hyperlink ref="B23" location="Meetlocatie!A1" display="Meetlocatie" xr:uid="{00000000-0004-0000-0B00-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet12">
     <tabColor theme="3" tint="0.79998168889431442"/>
   </sheetPr>
@@ -3881,7 +3984,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="63" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>13</v>
@@ -4046,7 +4149,7 @@
         <v>259</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="2:8" s="43" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -4125,14 +4228,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten"/>
+    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet13">
     <tabColor theme="3" tint="0.79998168889431442"/>
   </sheetPr>
@@ -4190,7 +4293,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="63" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>13</v>
@@ -4293,7 +4396,7 @@
     </row>
     <row r="8" spans="2:8" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="65" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C8" s="65" t="s">
         <v>44</v>
@@ -4322,7 +4425,7 @@
         <v>45</v>
       </c>
       <c r="D9" s="54" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E9" s="65" t="s">
         <v>288</v>
@@ -4357,7 +4460,7 @@
         <v>259</v>
       </c>
       <c r="H10" s="76" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="2:8" s="43" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4380,7 +4483,7 @@
         <v>259</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="2:8" s="43" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -4465,7 +4568,7 @@
         <v>25</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
@@ -4490,19 +4593,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten"/>
-    <hyperlink ref="B18" location="NormGeparametriseerdProfiel!A1" display="NormGeparamateriseerdProfiel"/>
-    <hyperlink ref="B17" location="Oppervlaktewater!A1" display="Oppervlaktewater"/>
-    <hyperlink ref="B19" location="Stuw!A1" display="Stuw"/>
-    <hyperlink ref="B20" location="Brug!A1" display="Brug"/>
-    <hyperlink ref="B21" location="Bodemval!A1" display="Bodemval"/>
+    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="B18" location="NormGeparametriseerdProfiel!A1" display="NormGeparamateriseerdProfiel" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
+    <hyperlink ref="B17" location="Oppervlaktewater!A1" display="Oppervlaktewater" xr:uid="{00000000-0004-0000-0D00-000002000000}"/>
+    <hyperlink ref="B19" location="Stuw!A1" display="Stuw" xr:uid="{00000000-0004-0000-0D00-000003000000}"/>
+    <hyperlink ref="B20" location="Brug!A1" display="Brug" xr:uid="{00000000-0004-0000-0D00-000004000000}"/>
+    <hyperlink ref="B21" location="Bodemval!A1" display="Bodemval" xr:uid="{00000000-0004-0000-0D00-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet14">
     <tabColor theme="3" tint="0.79998168889431442"/>
   </sheetPr>
@@ -4998,7 +5101,7 @@
         <v>259</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -5078,7 +5181,7 @@
         <v>85</v>
       </c>
       <c r="D28" s="85" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
@@ -5093,9 +5196,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten"/>
-    <hyperlink ref="B29" location="Oppervlaktewater!A1" display="Oppervlaktewater"/>
-    <hyperlink ref="B30" location="DwarsProfiel!A1" display="MetingProfiel"/>
+    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="B29" location="Oppervlaktewater!A1" display="Oppervlaktewater" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
+    <hyperlink ref="B30" location="DwarsProfiel!A1" display="MetingProfiel" xr:uid="{00000000-0004-0000-0E00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5104,7 +5207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet15">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
@@ -5394,17 +5497,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten"/>
-    <hyperlink ref="B15" location="Aanvoergebied!A1" display="Aanvoergebied"/>
-    <hyperlink ref="B16" location="Afwateringsgebied!A1" display="Afwateringsgebied"/>
-    <hyperlink ref="B17" location="LateraleKnoop!A1" display="LateraleKnoop"/>
+    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink ref="B15" location="Aanvoergebied!A1" display="Aanvoergebied" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
+    <hyperlink ref="B16" location="Afwateringsgebied!A1" display="Afwateringsgebied" xr:uid="{00000000-0004-0000-0F00-000002000000}"/>
+    <hyperlink ref="B17" location="LateraleKnoop!A1" display="LateraleKnoop" xr:uid="{00000000-0004-0000-0F00-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Sheet16">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
@@ -5694,17 +5797,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten"/>
-    <hyperlink ref="B16" location="Afwateringsgebied!A1" display="Afwateringsgebied"/>
-    <hyperlink ref="B15" location="Afvoergebied!A1" display="Afvoergebied"/>
-    <hyperlink ref="B17" location="LateraleKnoop!A1" display="Laterale knoop"/>
+    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
+    <hyperlink ref="B16" location="Afwateringsgebied!A1" display="Afwateringsgebied" xr:uid="{00000000-0004-0000-1000-000001000000}"/>
+    <hyperlink ref="B15" location="Afvoergebied!A1" display="Afvoergebied" xr:uid="{00000000-0004-0000-1000-000002000000}"/>
+    <hyperlink ref="B17" location="LateraleKnoop!A1" display="Laterale knoop" xr:uid="{00000000-0004-0000-1000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Sheet17">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
@@ -5948,16 +6051,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten"/>
-    <hyperlink ref="B13" location="Afvoergebied!A1" display="Afvoergebied"/>
-    <hyperlink ref="B14" location="Aanvoergebied!A1" display="Aanvoergebied"/>
+    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
+    <hyperlink ref="B13" location="Afvoergebied!A1" display="Afvoergebied" xr:uid="{00000000-0004-0000-1100-000001000000}"/>
+    <hyperlink ref="B14" location="Aanvoergebied!A1" display="Aanvoergebied" xr:uid="{00000000-0004-0000-1100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr codeName="Sheet18">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
@@ -6154,22 +6257,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten"/>
-    <hyperlink ref="B11" location="Afvoergebied!A1" display="Afvoergebied"/>
-    <hyperlink ref="B12" location="Aanvoergebied!A1" display="Aanvoergebied"/>
+    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
+    <hyperlink ref="B11" location="Afvoergebied!A1" display="Afvoergebied" xr:uid="{00000000-0004-0000-1200-000001000000}"/>
+    <hyperlink ref="B12" location="Aanvoergebied!A1" display="Aanvoergebied" xr:uid="{00000000-0004-0000-1200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
   <dimension ref="B2:H403"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -9609,30 +9712,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" location="Stuw!A1" display="Stuw"/>
-    <hyperlink ref="D4" location="Afsluitmiddel!A1" display="Afsluitmiddel"/>
-    <hyperlink ref="D6" location="Gemaal!A1" display="Gemaal"/>
-    <hyperlink ref="D7" location="Pomp!A1" display="Pomp"/>
-    <hyperlink ref="D8" location="DuikerSifonHevel!A1" display="DuikerSifonHevel"/>
-    <hyperlink ref="D9" location="Aquaduct!A1" display="Aquaduct"/>
-    <hyperlink ref="D10" location="Brug!A1" display="Brug"/>
-    <hyperlink ref="D11" location="Bodemval!A1" display="Bodemval"/>
-    <hyperlink ref="D12" location="Sturing!A1" display="Sturing"/>
-    <hyperlink ref="D13" location="HydroObject!A1" display="HydroObject"/>
-    <hyperlink ref="D14" location="DwarsProfiel!A1" display="Dwarsprofiel"/>
-    <hyperlink ref="D5" location="Doorstroomopening!A1" display="Doorstroomopening"/>
-    <hyperlink ref="D15" location="NormGeparametriseerdProfiel!A1" display="NormGeparamateriseerdProfiel"/>
-    <hyperlink ref="D16" location="Afvoergebied!A1" display="Afvoergebied"/>
-    <hyperlink ref="D17" location="Aanvoergebied!A1" display="Aanvoergebied"/>
-    <hyperlink ref="D18" location="Afwateringsgebied!A1" display="Afwateringsgebied"/>
-    <hyperlink ref="D19" location="LateraleKnoop!A1" display="Laterale knoop"/>
-    <hyperlink ref="D20" location="HydraulischeRandvoorwaarde!A1" display="HydraulischeRandvoorwaarde"/>
-    <hyperlink ref="D22" location="Meetlocatie!A1" display="Meetlocatie"/>
-    <hyperlink ref="D23" location="GrondwaterKoppelPunt!A1" display="KoppelPunt"/>
-    <hyperlink ref="D24" location="GrondwaterKoppelLijn!A1" display="Koppellijn"/>
-    <hyperlink ref="D21" location="BijzonderHydraulischeObject!A1" display="BijzonderHydraulischeObject"/>
-    <hyperlink ref="D26" location="GrondwaterInfoLijn!A1" display="GrondwaterInfoLijn"/>
-    <hyperlink ref="D25" location="GrondwaterInfoPunt!A1" display="GrondwaterInfoPunt"/>
+    <hyperlink ref="D3" location="Stuw!A1" display="Stuw" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D4" location="Afsluitmiddel!A1" display="Afsluitmiddel" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D6" location="Gemaal!A1" display="Gemaal" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D7" location="Pomp!A1" display="Pomp" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D8" location="DuikerSifonHevel!A1" display="DuikerSifonHevel" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D9" location="Aquaduct!A1" display="Aquaduct" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D10" location="Brug!A1" display="Brug" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D11" location="Bodemval!A1" display="Bodemval" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D12" location="Sturing!A1" display="Sturing" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D13" location="HydroObject!A1" display="HydroObject" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D14" location="DwarsProfiel!A1" display="Dwarsprofiel" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D5" location="Doorstroomopening!A1" display="Doorstroomopening" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="D15" location="NormGeparametriseerdProfiel!A1" display="NormGeparamateriseerdProfiel" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="D16" location="Afvoergebied!A1" display="Afvoergebied" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="D17" location="Aanvoergebied!A1" display="Aanvoergebied" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="D18" location="Afwateringsgebied!A1" display="Afwateringsgebied" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="D19" location="LateraleKnoop!A1" display="Laterale knoop" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="D20" location="HydraulischeRandvoorwaarde!A1" display="HydraulischeRandvoorwaarde" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="D22" location="Meetlocatie!A1" display="Meetlocatie" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="D23" location="GrondwaterKoppelPunt!A1" display="KoppelPunt" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="D24" location="GrondwaterKoppelLijn!A1" display="Koppellijn" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="D21" location="BijzonderHydraulischeObject!A1" display="BijzonderHydraulischeObject" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="D26" location="GrondwaterInfoLijn!A1" display="GrondwaterInfoLijn" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="D25" location="GrondwaterInfoPunt!A1" display="GrondwaterInfoPunt" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9640,7 +9743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr codeName="Sheet19">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
@@ -9819,7 +9922,7 @@
         <v>259</v>
       </c>
       <c r="H8" s="66" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="2:8" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -9913,14 +10016,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten"/>
+    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten" xr:uid="{00000000-0004-0000-1300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr codeName="Sheet20">
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
@@ -10141,7 +10244,7 @@
         <v>259</v>
       </c>
       <c r="H10" s="78" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="2:8" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10193,14 +10296,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten"/>
+    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr codeName="Sheet21">
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
@@ -10279,7 +10382,7 @@
         <v>45</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E4" s="65" t="s">
         <v>288</v>
@@ -10435,16 +10538,16 @@
         <v>235</v>
       </c>
       <c r="E11" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="H11" s="66" t="s">
         <v>326</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="66" t="s">
-        <v>259</v>
-      </c>
-      <c r="H11" s="66" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="12" spans="2:8" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10458,16 +10561,16 @@
         <v>234</v>
       </c>
       <c r="E12" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="H12" s="66" t="s">
         <v>326</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="66" t="s">
-        <v>259</v>
-      </c>
-      <c r="H12" s="66" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="13" spans="2:8" s="43" customFormat="1" x14ac:dyDescent="0.3">
@@ -10481,16 +10584,16 @@
         <v>233</v>
       </c>
       <c r="E13" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="H13" s="66" t="s">
         <v>326</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="66" t="s">
-        <v>259</v>
-      </c>
-      <c r="H13" s="66" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="14" spans="2:8" s="43" customFormat="1" x14ac:dyDescent="0.3">
@@ -10504,16 +10607,16 @@
         <v>236</v>
       </c>
       <c r="E14" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="H14" s="66" t="s">
         <v>326</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="66" t="s">
-        <v>259</v>
-      </c>
-      <c r="H14" s="66" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
@@ -10527,16 +10630,16 @@
         <v>237</v>
       </c>
       <c r="E15" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="H15" s="66" t="s">
         <v>326</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="66" t="s">
-        <v>259</v>
-      </c>
-      <c r="H15" s="66" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
@@ -10581,15 +10684,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten"/>
-    <hyperlink ref="B19" location="Sturing!A1" display="Sturing"/>
+    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
+    <hyperlink ref="B19" location="Sturing!A1" display="Sturing" xr:uid="{00000000-0004-0000-1500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr codeName="Sheet22">
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -10784,15 +10887,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten"/>
-    <hyperlink ref="B11" location="GrondwaterInfoPunt!A1" display="GrondwaterInfoPunt"/>
+    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten" xr:uid="{00000000-0004-0000-1600-000000000000}"/>
+    <hyperlink ref="B11" location="GrondwaterInfoPunt!A1" display="GrondwaterInfoPunt" xr:uid="{00000000-0004-0000-1600-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr codeName="Sheet23">
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -10987,23 +11090,23 @@
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten"/>
-    <hyperlink ref="B11" location="GrondwaterInfoLijn!A1" display="GrondwaterInfoLijn"/>
+    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
+    <hyperlink ref="B11" location="GrondwaterInfoLijn!A1" display="GrondwaterInfoLijn" xr:uid="{00000000-0004-0000-1700-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr codeName="Sheet24">
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -11105,7 +11208,7 @@
         <v>45</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E5" s="65" t="s">
         <v>288</v>
@@ -11285,15 +11388,15 @@
     <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten"/>
-    <hyperlink ref="B15" location="GrondwaterKoppelPunt!A1" display="GrondwaterKoppelPunt"/>
+    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten" xr:uid="{00000000-0004-0000-1800-000000000000}"/>
+    <hyperlink ref="B15" location="GrondwaterKoppelPunt!A1" display="GrondwaterKoppelPunt" xr:uid="{00000000-0004-0000-1800-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -11395,7 +11498,7 @@
         <v>45</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E5" s="65" t="s">
         <v>288</v>
@@ -11613,15 +11716,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten"/>
-    <hyperlink ref="B17" location="GrondwaterKoppelLijn!A1" display="GrondwaterKoppelLijn"/>
+    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten" xr:uid="{00000000-0004-0000-1900-000000000000}"/>
+    <hyperlink ref="B17" location="GrondwaterKoppelLijn!A1" display="GrondwaterKoppelLijn" xr:uid="{00000000-0004-0000-1900-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="B1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11672,7 +11775,7 @@
         <v>45</v>
       </c>
       <c r="D3" s="63" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>13</v>
@@ -11710,13 +11813,13 @@
     </row>
     <row r="5" spans="2:8" ht="240" x14ac:dyDescent="0.25">
       <c r="B5" s="65" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C5" s="65" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E5" s="65" t="s">
         <v>290</v>
@@ -11728,12 +11831,12 @@
         <v>259</v>
       </c>
       <c r="H5" s="86" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>44</v>
@@ -11754,13 +11857,13 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>288</v>
@@ -11845,7 +11948,7 @@
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="36" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
@@ -11859,27 +11962,27 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B10:B25">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B10:B25">
     <sortCondition ref="B10:B25"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten"/>
-    <hyperlink ref="B25" location="Stuw!A1" display="Stuw!A1"/>
-    <hyperlink ref="B10" location="Aanvoergebied!A1" display="Aanvoergebied!A1"/>
-    <hyperlink ref="B11" location="Afvoergebied!A1" display="Afvoergebied!A1"/>
-    <hyperlink ref="B12" location="Afwateringsgebied!A1" display="Afwateringsgebied!A1"/>
-    <hyperlink ref="B22" location="Meetlocatie!A1" display="Meetlocatie!A1"/>
-    <hyperlink ref="B20" location="GrondwaterKoppelPunt!A1" display="GrondwaterKoppelPunt!A1"/>
-    <hyperlink ref="B19" location="GrondwaterKoppelLijn!A1" display="GrondwaterKoppelLijn!A1"/>
-    <hyperlink ref="B18" location="Gemaal!A1" display="Gemaal!A1"/>
-    <hyperlink ref="B24" location="Pomp!A1" display="Pomp!A1"/>
-    <hyperlink ref="B16" location="DuikerSifonHevel!A1" display="DuikerSifonHevel!A1"/>
-    <hyperlink ref="B13" location="Aquaduct!A1" display="Aquaduct!A1"/>
-    <hyperlink ref="B15" location="Brug!A1" display="Brug!A1"/>
-    <hyperlink ref="B14" location="Bodemval!A1" display="Bodemval!A1"/>
-    <hyperlink ref="B17" location="DwarsProfiel!A1" display="DwarsProfiel!A1"/>
-    <hyperlink ref="B21" location="HydroObject!A1" display="HydroObject!A1"/>
-    <hyperlink ref="B23" location="NormGeparametriseerdProfiel!A1" display="NormGeparametriseerdProfiel!A1"/>
+    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten" xr:uid="{00000000-0004-0000-1A00-000000000000}"/>
+    <hyperlink ref="B25" location="Stuw!A1" display="Stuw!A1" xr:uid="{00000000-0004-0000-1A00-000001000000}"/>
+    <hyperlink ref="B10" location="Aanvoergebied!A1" display="Aanvoergebied!A1" xr:uid="{00000000-0004-0000-1A00-000002000000}"/>
+    <hyperlink ref="B11" location="Afvoergebied!A1" display="Afvoergebied!A1" xr:uid="{00000000-0004-0000-1A00-000003000000}"/>
+    <hyperlink ref="B12" location="Afwateringsgebied!A1" display="Afwateringsgebied!A1" xr:uid="{00000000-0004-0000-1A00-000004000000}"/>
+    <hyperlink ref="B22" location="Meetlocatie!A1" display="Meetlocatie!A1" xr:uid="{00000000-0004-0000-1A00-000005000000}"/>
+    <hyperlink ref="B20" location="GrondwaterKoppelPunt!A1" display="GrondwaterKoppelPunt!A1" xr:uid="{00000000-0004-0000-1A00-000006000000}"/>
+    <hyperlink ref="B19" location="GrondwaterKoppelLijn!A1" display="GrondwaterKoppelLijn!A1" xr:uid="{00000000-0004-0000-1A00-000007000000}"/>
+    <hyperlink ref="B18" location="Gemaal!A1" display="Gemaal!A1" xr:uid="{00000000-0004-0000-1A00-000008000000}"/>
+    <hyperlink ref="B24" location="Pomp!A1" display="Pomp!A1" xr:uid="{00000000-0004-0000-1A00-000009000000}"/>
+    <hyperlink ref="B16" location="DuikerSifonHevel!A1" display="DuikerSifonHevel!A1" xr:uid="{00000000-0004-0000-1A00-00000A000000}"/>
+    <hyperlink ref="B13" location="Aquaduct!A1" display="Aquaduct!A1" xr:uid="{00000000-0004-0000-1A00-00000B000000}"/>
+    <hyperlink ref="B15" location="Brug!A1" display="Brug!A1" xr:uid="{00000000-0004-0000-1A00-00000C000000}"/>
+    <hyperlink ref="B14" location="Bodemval!A1" display="Bodemval!A1" xr:uid="{00000000-0004-0000-1A00-00000D000000}"/>
+    <hyperlink ref="B17" location="DwarsProfiel!A1" display="DwarsProfiel!A1" xr:uid="{00000000-0004-0000-1A00-00000E000000}"/>
+    <hyperlink ref="B21" location="HydroObject!A1" display="HydroObject!A1" xr:uid="{00000000-0004-0000-1A00-00000F000000}"/>
+    <hyperlink ref="B23" location="NormGeparametriseerdProfiel!A1" display="NormGeparametriseerdProfiel!A1" xr:uid="{00000000-0004-0000-1A00-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -11887,7 +11990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -12333,9 +12436,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten"/>
-    <hyperlink ref="B22" location="Afsluitmiddel!A1" display="Afsluitmiddel"/>
-    <hyperlink ref="B23" location="DwarsProfiel!A1" display="MetingProfiel"/>
+    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B22" location="Afsluitmiddel!A1" display="Afsluitmiddel" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B23" location="DwarsProfiel!A1" display="MetingProfiel" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12344,7 +12447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -12688,18 +12791,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten"/>
-    <hyperlink ref="B18" location="Doorstroomopening!A1" display="Opening"/>
-    <hyperlink ref="B17" location="Stuw!A1" display="Stuw"/>
-    <hyperlink ref="B19" location="Sturing!A1" display="Sturing"/>
-    <hyperlink ref="B20" location="'Duiker|Hevel|sifon'!A1" display="Duiker/Hevel/sifon"/>
+    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B18" location="Doorstroomopening!A1" display="Opening" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B17" location="Stuw!A1" display="Stuw" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="B19" location="Sturing!A1" display="Sturing" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="B20" location="'Duiker|Hevel|sifon'!A1" display="Duiker/Hevel/sifon" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet4">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -12989,9 +13092,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten"/>
-    <hyperlink ref="B16" location="Afsluitmiddel!A1" display="Afsluitmiddel"/>
-    <hyperlink ref="B15" location="Stuw!A1" display="Stuw"/>
+    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B16" location="Afsluitmiddel!A1" display="Afsluitmiddel" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B15" location="Stuw!A1" display="Stuw" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12999,7 +13102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet5">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -13246,8 +13349,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten"/>
-    <hyperlink ref="B13" location="Pomp!A1" display="Pomp"/>
+    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="B13" location="Pomp!A1" display="Pomp" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13256,7 +13359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet6">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -13520,23 +13623,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten"/>
-    <hyperlink ref="B14" location="Gemaal!A1" display="Pomp"/>
-    <hyperlink ref="B15" location="Sturing!A1" display="Sturing"/>
+    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="B14" location="Gemaal!A1" display="Pomp" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="B15" location="Sturing!A1" display="Sturing" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet7">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13841,7 +13944,7 @@
     </row>
     <row r="15" spans="2:8" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B15" s="23" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>44</v>
@@ -13882,7 +13985,7 @@
         <v>259</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="2:8" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -13905,7 +14008,7 @@
         <v>259</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="2:8" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -14025,8 +14128,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten"/>
-    <hyperlink ref="B25" location="Afsluitmiddel!A1" display="Afsluitmiddel"/>
+    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="B25" location="Afsluitmiddel!A1" display="Afsluitmiddel" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14034,7 +14137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet8">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -14239,7 +14342,7 @@
     </row>
     <row r="10" spans="2:8" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="65" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C10" s="65" t="s">
         <v>44</v>
@@ -14260,7 +14363,7 @@
     </row>
     <row r="11" spans="2:8" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="65" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C11" s="65" t="s">
         <v>44</v>
@@ -14281,13 +14384,13 @@
     </row>
     <row r="12" spans="2:8" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="65" t="s">
+        <v>321</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="65" t="s">
         <v>322</v>
-      </c>
-      <c r="C12" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="65" t="s">
-        <v>323</v>
       </c>
       <c r="E12" s="65" t="s">
         <v>301</v>
@@ -14320,7 +14423,7 @@
         <v>259</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="2:8" s="43" customFormat="1" x14ac:dyDescent="0.3">
@@ -14393,7 +14496,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten"/>
+    <hyperlink ref="B1" location="AlleObjecten!A1" display="Alle objecten" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
